--- a/src/assets/List.xlsx
+++ b/src/assets/List.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
   <si>
     <t xml:space="preserve">Brand </t>
   </si>
@@ -582,11 +583,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" activeCellId="1" sqref="E1:E1048576 D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -953,4 +957,86 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId8"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>